--- a/db.xlsx
+++ b/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\sunlight-harvesting-energy-conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0A67A6-F20C-4C8A-8FF2-C86F4F03A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B550B1A-D7A2-45D6-AA2C-A0B9EDFE34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -288,7 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -346,7 +346,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="169">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -358,6 +372,125 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -447,1014 +580,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1729,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="O207" sqref="O207"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6259,77 +5386,81 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="5">
-        <v>395</v>
+        <v>545</v>
       </c>
       <c r="E127" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F127" s="5">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G127" s="5">
-        <v>612</v>
+        <v>680</v>
       </c>
       <c r="H127" s="5">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="I127" s="5">
-        <v>710</v>
-      </c>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="24">
-        <v>15.42</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="J127" s="5">
+        <v>50</v>
+      </c>
+      <c r="K127" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="L127" s="24"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D128" s="5">
-        <v>545</v>
+        <v>498</v>
       </c>
       <c r="E128" s="5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F128" s="5">
         <v>700</v>
       </c>
       <c r="G128" s="5">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="H128" s="5">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="I128" s="5">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J128" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K128" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="L128" s="24"/>
+        <v>6.88</v>
+      </c>
+      <c r="L128" s="24">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>12</v>
@@ -6338,36 +5469,34 @@
         <v>17</v>
       </c>
       <c r="D129" s="5">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="E129" s="5">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F129" s="5">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G129" s="5">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="H129" s="5">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="I129" s="5">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="J129" s="5">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K129" s="5">
-        <v>6.88</v>
-      </c>
-      <c r="L129" s="24">
-        <v>0.27</v>
-      </c>
+        <v>2.58</v>
+      </c>
+      <c r="L129" s="24"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>12</v>
@@ -6376,46 +5505,48 @@
         <v>17</v>
       </c>
       <c r="D130" s="5">
-        <v>569</v>
+        <v>488</v>
       </c>
       <c r="E130" s="5">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F130" s="5">
+        <v>500</v>
+      </c>
+      <c r="G130" s="5">
+        <v>510</v>
+      </c>
+      <c r="H130" s="5">
+        <v>450</v>
+      </c>
+      <c r="I130" s="5">
         <v>600</v>
       </c>
-      <c r="G130" s="5">
-        <v>595</v>
-      </c>
-      <c r="H130" s="5">
-        <v>550</v>
-      </c>
-      <c r="I130" s="5">
-        <v>750</v>
-      </c>
       <c r="J130" s="5">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K130" s="5">
-        <v>2.58</v>
-      </c>
-      <c r="L130" s="24"/>
+        <v>3.3</v>
+      </c>
+      <c r="L130" s="24">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D131" s="5">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="E131" s="5">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F131" s="5">
         <v>500</v>
@@ -6424,24 +5555,22 @@
         <v>510</v>
       </c>
       <c r="H131" s="5">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="I131" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J131" s="5">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K131" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="L131" s="24">
-        <v>0.35</v>
-      </c>
+        <v>2.7</v>
+      </c>
+      <c r="L131" s="24"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>22</v>
@@ -6450,34 +5579,34 @@
         <v>14</v>
       </c>
       <c r="D132" s="5">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="E132" s="5">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F132" s="5">
         <v>500</v>
       </c>
       <c r="G132" s="5">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H132" s="5">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="I132" s="5">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J132" s="5">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="K132" s="5">
-        <v>2.7</v>
+        <v>5.84</v>
       </c>
       <c r="L132" s="24"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>22</v>
@@ -6486,70 +5615,72 @@
         <v>14</v>
       </c>
       <c r="D133" s="5">
-        <v>340</v>
+        <v>720</v>
       </c>
       <c r="E133" s="5">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F133" s="5">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G133" s="5">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="H133" s="5">
         <v>400</v>
       </c>
       <c r="I133" s="5">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J133" s="5">
-        <v>6</v>
-      </c>
-      <c r="K133" s="5">
-        <v>5.84</v>
-      </c>
-      <c r="L133" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="K133" s="5"/>
+      <c r="L133" s="24">
+        <v>8.75</v>
+      </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D134" s="5">
-        <v>720</v>
+        <v>420</v>
       </c>
       <c r="E134" s="5">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F134" s="5">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="G134" s="5">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="H134" s="5">
         <v>400</v>
       </c>
       <c r="I134" s="5">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J134" s="5">
-        <v>65</v>
-      </c>
-      <c r="K134" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="K134" s="5">
+        <v>1.6</v>
+      </c>
       <c r="L134" s="24">
-        <v>8.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>22</v>
@@ -6558,16 +5689,16 @@
         <v>13</v>
       </c>
       <c r="D135" s="5">
-        <v>420</v>
+        <v>557</v>
       </c>
       <c r="E135" s="5">
         <v>300</v>
       </c>
       <c r="F135" s="5">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="G135" s="5">
-        <v>515</v>
+        <v>612</v>
       </c>
       <c r="H135" s="5">
         <v>400</v>
@@ -6576,18 +5707,16 @@
         <v>700</v>
       </c>
       <c r="J135" s="5">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K135" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="L135" s="24">
-        <v>0.7</v>
-      </c>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L135" s="26"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>22</v>
@@ -6596,117 +5725,119 @@
         <v>13</v>
       </c>
       <c r="D136" s="5">
-        <v>557</v>
+        <v>420</v>
       </c>
       <c r="E136" s="5">
         <v>300</v>
       </c>
       <c r="F136" s="5">
+        <v>550</v>
+      </c>
+      <c r="G136" s="5">
+        <v>500</v>
+      </c>
+      <c r="H136" s="5">
+        <v>440</v>
+      </c>
+      <c r="I136" s="5">
         <v>600</v>
       </c>
-      <c r="G136" s="5">
-        <v>612</v>
-      </c>
-      <c r="H136" s="5">
-        <v>400</v>
-      </c>
-      <c r="I136" s="5">
-        <v>700</v>
-      </c>
       <c r="J136" s="5">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K136" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L136" s="26"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L136" s="24">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D137" s="5">
-        <v>420</v>
+        <v>575</v>
       </c>
       <c r="E137" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F137" s="5">
-        <v>550</v>
-      </c>
-      <c r="G137" s="5">
-        <v>500</v>
+        <v>610</v>
+      </c>
+      <c r="G137" s="25">
+        <v>620</v>
       </c>
       <c r="H137" s="5">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="I137" s="5">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J137" s="5">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="K137" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L137" s="24">
-        <v>1.1299999999999999</v>
-      </c>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L137" s="24"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="4">
-        <v>138</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="5">
-        <v>575</v>
-      </c>
-      <c r="E138" s="5">
-        <v>400</v>
+        <v>139</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="12">
+        <v>491</v>
+      </c>
+      <c r="E138" s="12">
+        <v>250</v>
       </c>
       <c r="F138" s="5">
-        <v>610</v>
-      </c>
-      <c r="G138" s="25">
-        <v>620</v>
-      </c>
-      <c r="H138" s="5">
-        <v>570</v>
+        <v>520</v>
+      </c>
+      <c r="G138" s="12">
+        <v>520</v>
+      </c>
+      <c r="H138" s="12">
+        <v>500</v>
       </c>
       <c r="I138" s="5">
         <v>700</v>
       </c>
-      <c r="J138" s="5">
-        <v>96</v>
-      </c>
-      <c r="K138" s="5">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="L138" s="24"/>
+      <c r="J138" s="12">
+        <v>82</v>
+      </c>
+      <c r="K138" s="12">
+        <v>5.43</v>
+      </c>
+      <c r="L138" s="23">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D139" s="12">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="E139" s="12">
         <v>250</v>
@@ -6715,27 +5846,27 @@
         <v>520</v>
       </c>
       <c r="G139" s="12">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="H139" s="12">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I139" s="5">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="J139" s="12">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K139" s="12">
-        <v>5.43</v>
-      </c>
-      <c r="L139" s="23">
-        <v>0.18</v>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L139" s="21">
+        <v>8.3000000000000001E-4</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>22</v>
@@ -6765,129 +5896,129 @@
         <v>78</v>
       </c>
       <c r="K140" s="12">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="L140" s="21">
-        <v>8.3000000000000001E-4</v>
+        <v>1.7</v>
+      </c>
+      <c r="L140" s="22">
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D141" s="12">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="E141" s="12">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F141" s="5">
-        <v>520</v>
+        <v>610</v>
       </c>
       <c r="G141" s="12">
-        <v>535</v>
+        <v>620</v>
       </c>
       <c r="H141" s="12">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="I141" s="5">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="J141" s="12">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K141" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="L141" s="22">
-        <v>1.4E-2</v>
+        <v>19</v>
+      </c>
+      <c r="L141" s="23">
+        <v>2.9</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="12">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="E142" s="12">
         <v>400</v>
       </c>
       <c r="F142" s="5">
-        <v>610</v>
+        <v>660</v>
       </c>
       <c r="G142" s="12">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H142" s="12">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="I142" s="5">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="J142" s="12">
-        <v>95</v>
+        <v>15.7</v>
       </c>
       <c r="K142" s="12">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="L142" s="23">
-        <v>2.9</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143" s="12">
-        <v>480</v>
+        <v>405</v>
       </c>
       <c r="E143" s="12">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F143" s="5">
-        <v>660</v>
+        <v>500</v>
       </c>
       <c r="G143" s="12">
-        <v>622</v>
+        <v>520</v>
       </c>
       <c r="H143" s="12">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="I143" s="5">
         <v>700</v>
       </c>
       <c r="J143" s="12">
-        <v>15.7</v>
+        <v>70</v>
       </c>
       <c r="K143" s="12">
         <v>3.2</v>
       </c>
       <c r="L143" s="23">
-        <v>0.62</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>22</v>
@@ -6914,110 +6045,110 @@
         <v>700</v>
       </c>
       <c r="J144" s="12">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K144" s="12">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L144" s="23">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D145" s="12">
-        <v>405</v>
+        <v>500</v>
       </c>
       <c r="E145" s="12">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F145" s="5">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G145" s="12">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="H145" s="12">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I145" s="5">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="J145" s="12">
-        <v>65</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="K145" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="L145" s="23">
-        <v>1.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L145" s="23"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D146" s="12">
+        <v>347</v>
+      </c>
+      <c r="E146" s="12">
+        <v>280</v>
+      </c>
+      <c r="F146" s="5">
         <v>500</v>
       </c>
-      <c r="E146" s="12">
-        <v>400</v>
-      </c>
-      <c r="F146" s="5">
-        <v>700</v>
-      </c>
       <c r="G146" s="12">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="H146" s="12">
         <v>450</v>
       </c>
       <c r="I146" s="5">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="J146" s="12">
-        <v>32.700000000000003</v>
+        <v>61</v>
       </c>
       <c r="K146" s="12">
-        <v>1</v>
-      </c>
-      <c r="L146" s="23"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L146" s="23">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D147" s="12">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="E147" s="12">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F147" s="5">
         <v>500</v>
       </c>
       <c r="G147" s="12">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="H147" s="12">
         <v>450</v>
@@ -7026,56 +6157,54 @@
         <v>700</v>
       </c>
       <c r="J147" s="12">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="K147" s="12">
-        <v>4.5599999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="L147" s="23">
-        <v>4.0999999999999996</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D148" s="12">
-        <v>405</v>
+        <v>490</v>
       </c>
       <c r="E148" s="12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F148" s="5">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="G148" s="12">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H148" s="12">
         <v>450</v>
       </c>
       <c r="I148" s="5">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="J148" s="12">
-        <v>81</v>
-      </c>
-      <c r="K148" s="12">
-        <v>3.4</v>
-      </c>
+        <v>80.5</v>
+      </c>
+      <c r="K148" s="12"/>
       <c r="L148" s="23">
-        <v>1.37</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>22</v>
@@ -7104,14 +6233,16 @@
       <c r="J149" s="12">
         <v>80.5</v>
       </c>
-      <c r="K149" s="12"/>
+      <c r="K149" s="12">
+        <v>4.8</v>
+      </c>
       <c r="L149" s="23">
-        <v>2.06</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>22</v>
@@ -7120,72 +6251,70 @@
         <v>13</v>
       </c>
       <c r="D150" s="12">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="E150" s="12">
         <v>300</v>
       </c>
       <c r="F150" s="5">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="G150" s="12">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H150" s="12">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I150" s="5">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="J150" s="12">
-        <v>80.5</v>
+        <v>11.54</v>
       </c>
       <c r="K150" s="12">
-        <v>4.8</v>
-      </c>
-      <c r="L150" s="23">
-        <v>4.3600000000000003</v>
-      </c>
+        <v>1.36</v>
+      </c>
+      <c r="L150" s="23"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="12">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="E151" s="12">
         <v>300</v>
       </c>
       <c r="F151" s="5">
+        <v>550</v>
+      </c>
+      <c r="G151" s="12">
+        <v>515</v>
+      </c>
+      <c r="H151" s="12">
         <v>450</v>
       </c>
-      <c r="G151" s="12">
-        <v>450</v>
-      </c>
-      <c r="H151" s="12">
-        <v>400</v>
-      </c>
       <c r="I151" s="5">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="J151" s="12">
-        <v>11.54</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="K151" s="12">
-        <v>1.36</v>
+        <v>3.08</v>
       </c>
       <c r="L151" s="23"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>15</v>
@@ -7194,7 +6323,7 @@
         <v>13</v>
       </c>
       <c r="D152" s="12">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E152" s="12">
         <v>300</v>
@@ -7203,28 +6332,28 @@
         <v>550</v>
       </c>
       <c r="G152" s="12">
-        <v>515</v>
+        <v>670</v>
       </c>
       <c r="H152" s="12">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="I152" s="5">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="J152" s="12">
-        <v>35.909999999999997</v>
+        <v>32.97</v>
       </c>
       <c r="K152" s="12">
-        <v>3.08</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L152" s="23"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>13</v>
@@ -7239,25 +6368,25 @@
         <v>550</v>
       </c>
       <c r="G153" s="12">
-        <v>670</v>
+        <v>515</v>
       </c>
       <c r="H153" s="12">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I153" s="5">
         <v>700</v>
       </c>
       <c r="J153" s="12">
-        <v>32.97</v>
+        <v>23</v>
       </c>
       <c r="K153" s="12">
-        <v>2.5499999999999998</v>
+        <v>1.89</v>
       </c>
       <c r="L153" s="23"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>23</v>
@@ -7275,7 +6404,7 @@
         <v>550</v>
       </c>
       <c r="G154" s="12">
-        <v>515</v>
+        <v>670</v>
       </c>
       <c r="H154" s="12">
         <v>400</v>
@@ -7284,16 +6413,16 @@
         <v>700</v>
       </c>
       <c r="J154" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K154" s="12">
-        <v>1.89</v>
+        <v>2.54</v>
       </c>
       <c r="L154" s="23"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>23</v>
@@ -7304,14 +6433,14 @@
       <c r="D155" s="12">
         <v>320</v>
       </c>
-      <c r="E155" s="12">
+      <c r="E155" s="19">
         <v>300</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F155" s="19">
         <v>550</v>
       </c>
       <c r="G155" s="12">
-        <v>670</v>
+        <v>500</v>
       </c>
       <c r="H155" s="12">
         <v>400</v>
@@ -7320,52 +6449,52 @@
         <v>700</v>
       </c>
       <c r="J155" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K155" s="12">
-        <v>2.54</v>
+        <v>3.76</v>
       </c>
       <c r="L155" s="23"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="12">
-        <v>320</v>
-      </c>
-      <c r="E156" s="19">
+        <v>350</v>
+      </c>
+      <c r="E156" s="12">
         <v>300</v>
       </c>
-      <c r="F156" s="19">
-        <v>550</v>
+      <c r="F156" s="5">
+        <v>650</v>
       </c>
       <c r="G156" s="12">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="H156" s="12">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I156" s="5">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="J156" s="12">
-        <v>26</v>
-      </c>
-      <c r="K156" s="12">
-        <v>3.76</v>
-      </c>
-      <c r="L156" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="K156" s="12"/>
+      <c r="L156" s="23">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>22</v>
@@ -7374,34 +6503,34 @@
         <v>13</v>
       </c>
       <c r="D157" s="12">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="E157" s="12">
         <v>300</v>
       </c>
       <c r="F157" s="5">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="G157" s="12">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="H157" s="12">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I157" s="5">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="J157" s="12">
         <v>35</v>
       </c>
       <c r="K157" s="12"/>
       <c r="L157" s="23">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>22</v>
@@ -7410,34 +6539,34 @@
         <v>13</v>
       </c>
       <c r="D158" s="12">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E158" s="12">
         <v>300</v>
       </c>
       <c r="F158" s="5">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G158" s="12">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="H158" s="12">
         <v>400</v>
       </c>
       <c r="I158" s="5">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="J158" s="12">
         <v>35</v>
       </c>
       <c r="K158" s="12"/>
       <c r="L158" s="23">
-        <v>1.7</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>22</v>
@@ -7446,40 +6575,42 @@
         <v>13</v>
       </c>
       <c r="D159" s="12">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="E159" s="12">
         <v>300</v>
       </c>
       <c r="F159" s="5">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="G159" s="12">
-        <v>560</v>
+        <v>517</v>
       </c>
       <c r="H159" s="12">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I159" s="5">
-        <v>775</v>
+        <v>700</v>
       </c>
       <c r="J159" s="12">
-        <v>35</v>
-      </c>
-      <c r="K159" s="12"/>
-      <c r="L159" s="23">
-        <v>2.2999999999999998</v>
+        <v>33</v>
+      </c>
+      <c r="K159" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="L159" s="22">
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D160" s="12">
         <v>400</v>
@@ -7500,18 +6631,18 @@
         <v>700</v>
       </c>
       <c r="J160" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K160" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="L160" s="22">
-        <v>0.11700000000000001</v>
+        <v>5.89</v>
+      </c>
+      <c r="L160" s="23">
+        <v>0.16</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>22</v>
@@ -7541,53 +6672,53 @@
         <v>41</v>
       </c>
       <c r="K161" s="12">
-        <v>5.89</v>
-      </c>
-      <c r="L161" s="23">
-        <v>0.16</v>
+        <v>3.13</v>
+      </c>
+      <c r="L161" s="22">
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D162" s="12">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E162" s="12">
         <v>300</v>
       </c>
       <c r="F162" s="5">
+        <v>550</v>
+      </c>
+      <c r="G162" s="12">
+        <v>594</v>
+      </c>
+      <c r="H162" s="12">
         <v>500</v>
       </c>
-      <c r="G162" s="12">
-        <v>517</v>
-      </c>
-      <c r="H162" s="12">
-        <v>450</v>
-      </c>
       <c r="I162" s="5">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="J162" s="12">
-        <v>41</v>
+        <v>86.4</v>
       </c>
       <c r="K162" s="12">
-        <v>3.13</v>
-      </c>
-      <c r="L162" s="22">
-        <v>6.0999999999999999E-2</v>
+        <v>2.6</v>
+      </c>
+      <c r="L162" s="23">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>22</v>
@@ -7596,36 +6727,36 @@
         <v>13</v>
       </c>
       <c r="D163" s="12">
-        <v>404</v>
+        <v>555</v>
       </c>
       <c r="E163" s="12">
         <v>300</v>
       </c>
       <c r="F163" s="5">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="G163" s="12">
-        <v>594</v>
+        <v>650</v>
       </c>
       <c r="H163" s="12">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="I163" s="5">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="J163" s="12">
-        <v>86.4</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="K163" s="12">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L163" s="23">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>22</v>
@@ -7634,80 +6765,78 @@
         <v>13</v>
       </c>
       <c r="D164" s="12">
-        <v>555</v>
+        <v>450</v>
       </c>
       <c r="E164" s="12">
         <v>300</v>
       </c>
       <c r="F164" s="5">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="G164" s="12">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="H164" s="12">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="I164" s="5">
         <v>800</v>
       </c>
       <c r="J164" s="12">
-        <v>17.600000000000001</v>
+        <v>60</v>
       </c>
       <c r="K164" s="12">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="L164" s="23">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D165" s="12">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="E165" s="12">
         <v>300</v>
       </c>
       <c r="F165" s="5">
-        <v>660</v>
+        <v>450</v>
       </c>
       <c r="G165" s="12">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="H165" s="12">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I165" s="5">
-        <v>800</v>
-      </c>
-      <c r="J165" s="12">
-        <v>60</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="J165" s="12"/>
       <c r="K165" s="12">
-        <v>4.3</v>
+        <v>1.23</v>
       </c>
       <c r="L165" s="23">
-        <v>3.8</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B166" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D166" s="12">
         <v>340</v>
@@ -7729,87 +6858,89 @@
       </c>
       <c r="J166" s="12"/>
       <c r="K166" s="12">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="L166" s="23">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D167" s="12">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="E167" s="12">
         <v>300</v>
       </c>
       <c r="F167" s="5">
+        <v>550</v>
+      </c>
+      <c r="G167" s="12">
+        <v>535</v>
+      </c>
+      <c r="H167" s="12">
         <v>450</v>
       </c>
-      <c r="G167" s="12">
-        <v>520</v>
-      </c>
-      <c r="H167" s="12">
-        <v>400</v>
-      </c>
       <c r="I167" s="5">
-        <v>700</v>
-      </c>
-      <c r="J167" s="12"/>
+        <v>650</v>
+      </c>
+      <c r="J167" s="12">
+        <v>9.6</v>
+      </c>
       <c r="K167" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="L167" s="23">
-        <v>0.62</v>
-      </c>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L167" s="23"/>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B168" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D168" s="12">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="E168" s="12">
         <v>300</v>
       </c>
       <c r="F168" s="5">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="G168" s="12">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="H168" s="12">
         <v>450</v>
       </c>
       <c r="I168" s="5">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="J168" s="12">
-        <v>9.6</v>
+        <v>41.52</v>
       </c>
       <c r="K168" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L168" s="23"/>
+        <v>3.51</v>
+      </c>
+      <c r="L168" s="23">
+        <v>2.39</v>
+      </c>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>22</v>
@@ -7818,7 +6949,7 @@
         <v>13</v>
       </c>
       <c r="D169" s="12">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="E169" s="12">
         <v>300</v>
@@ -7827,27 +6958,27 @@
         <v>500</v>
       </c>
       <c r="G169" s="12">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="H169" s="12">
         <v>450</v>
       </c>
       <c r="I169" s="5">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="J169" s="12">
-        <v>41.52</v>
+        <v>15.01</v>
       </c>
       <c r="K169" s="12">
-        <v>3.51</v>
+        <v>2.76</v>
       </c>
       <c r="L169" s="23">
-        <v>2.39</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B170" s="12" t="s">
         <v>22</v>
@@ -7856,36 +6987,36 @@
         <v>13</v>
       </c>
       <c r="D170" s="12">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="E170" s="12">
         <v>300</v>
       </c>
       <c r="F170" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G170" s="12">
-        <v>520</v>
+        <v>608</v>
       </c>
       <c r="H170" s="12">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="I170" s="5">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="J170" s="12">
-        <v>15.01</v>
+        <v>7.6</v>
       </c>
       <c r="K170" s="12">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="L170" s="23">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B171" s="12" t="s">
         <v>22</v>
@@ -7894,7 +7025,7 @@
         <v>13</v>
       </c>
       <c r="D171" s="12">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E171" s="12">
         <v>300</v>
@@ -7903,65 +7034,65 @@
         <v>600</v>
       </c>
       <c r="G171" s="12">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H171" s="12">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="I171" s="5">
         <v>750</v>
       </c>
       <c r="J171" s="12">
-        <v>7.6</v>
+        <v>22</v>
       </c>
       <c r="K171" s="12">
-        <v>2.77</v>
+        <v>4.03</v>
       </c>
       <c r="L171" s="23">
-        <v>1.96</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D172" s="12">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E172" s="12">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F172" s="5">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="G172" s="12">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="H172" s="12">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="I172" s="5">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="J172" s="12">
-        <v>22</v>
-      </c>
-      <c r="K172" s="12">
-        <v>4.03</v>
+        <v>30</v>
+      </c>
+      <c r="K172" s="23">
+        <v>2.7</v>
       </c>
       <c r="L172" s="23">
-        <v>2.92</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B173" s="12" t="s">
         <v>15</v>
@@ -7970,36 +7101,34 @@
         <v>14</v>
       </c>
       <c r="D173" s="12">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="E173" s="12">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F173" s="5">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="G173" s="12">
-        <v>625</v>
+        <v>495</v>
       </c>
       <c r="H173" s="12">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="I173" s="5">
         <v>700</v>
       </c>
       <c r="J173" s="12">
-        <v>30</v>
-      </c>
-      <c r="K173" s="23">
-        <v>2.7</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K173" s="12"/>
       <c r="L173" s="23">
-        <v>0.38</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B174" s="12" t="s">
         <v>15</v>
@@ -8030,12 +7159,12 @@
       </c>
       <c r="K174" s="12"/>
       <c r="L174" s="23">
-        <v>4.29</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B175" s="12" t="s">
         <v>15</v>
@@ -8053,61 +7182,63 @@
         <v>500</v>
       </c>
       <c r="G175" s="12">
-        <v>495</v>
+        <v>578</v>
       </c>
       <c r="H175" s="12">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="I175" s="5">
         <v>700</v>
       </c>
       <c r="J175" s="12">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="K175" s="12"/>
       <c r="L175" s="23">
-        <v>0.55000000000000004</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D176" s="12">
-        <v>350</v>
-      </c>
-      <c r="E176" s="12">
-        <v>300</v>
-      </c>
-      <c r="F176" s="5">
-        <v>500</v>
-      </c>
-      <c r="G176" s="12">
-        <v>578</v>
+        <v>450</v>
+      </c>
+      <c r="E176" s="5">
+        <v>385</v>
+      </c>
+      <c r="F176" s="12">
+        <v>250</v>
+      </c>
+      <c r="G176" s="5">
+        <v>615</v>
       </c>
       <c r="H176" s="12">
-        <v>450</v>
-      </c>
-      <c r="I176" s="5">
-        <v>700</v>
+        <v>720</v>
+      </c>
+      <c r="I176" s="12">
+        <v>570</v>
       </c>
       <c r="J176" s="12">
-        <v>11</v>
-      </c>
-      <c r="K176" s="12"/>
-      <c r="L176" s="23">
-        <v>0.77</v>
+        <v>44</v>
+      </c>
+      <c r="K176" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="L176" s="5">
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B177" s="12" t="s">
         <v>26</v>
@@ -8116,112 +7247,112 @@
         <v>13</v>
       </c>
       <c r="D177" s="12">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E177" s="5">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="F177" s="12">
         <v>250</v>
       </c>
       <c r="G177" s="5">
-        <v>615</v>
+        <v>543</v>
       </c>
       <c r="H177" s="12">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="I177" s="12">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="J177" s="12">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K177" s="5">
-        <v>4.8</v>
+        <v>7.7</v>
       </c>
       <c r="L177" s="5">
-        <v>5.3999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="12">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E178" s="5">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="F178" s="12">
         <v>250</v>
       </c>
       <c r="G178" s="5">
-        <v>543</v>
+        <v>425</v>
       </c>
       <c r="H178" s="12">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I178" s="12">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="J178" s="12">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K178" s="5">
-        <v>7.7</v>
+        <v>13.1</v>
       </c>
       <c r="L178" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="4">
-        <v>179</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>22</v>
+        <v>180</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="12">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="E179" s="5">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="F179" s="12">
         <v>250</v>
       </c>
       <c r="G179" s="5">
-        <v>425</v>
+        <v>615</v>
       </c>
       <c r="H179" s="12">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="I179" s="12">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="J179" s="12">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K179" s="5">
-        <v>13.1</v>
+        <v>5.2</v>
       </c>
       <c r="L179" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>26</v>
@@ -8230,112 +7361,112 @@
         <v>13</v>
       </c>
       <c r="D180" s="12">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E180" s="5">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="F180" s="12">
         <v>250</v>
       </c>
       <c r="G180" s="5">
-        <v>615</v>
+        <v>543</v>
       </c>
       <c r="H180" s="12">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="I180" s="12">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="J180" s="12">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K180" s="5">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="L180" s="5">
-        <v>4.5999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="12">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E181" s="5">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="F181" s="12">
         <v>250</v>
       </c>
       <c r="G181" s="5">
-        <v>543</v>
+        <v>425</v>
       </c>
       <c r="H181" s="12">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I181" s="12">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="J181" s="12">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K181" s="5">
-        <v>7.7</v>
+        <v>12.8</v>
       </c>
       <c r="L181" s="5">
-        <v>4.7E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="4">
-        <v>182</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>22</v>
+        <v>183</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D182" s="12">
-        <v>425</v>
-      </c>
-      <c r="E182" s="5">
-        <v>340</v>
-      </c>
-      <c r="F182" s="12">
+      <c r="D182" s="19">
+        <v>450</v>
+      </c>
+      <c r="E182" s="19">
+        <v>390</v>
+      </c>
+      <c r="F182" s="19">
         <v>250</v>
       </c>
-      <c r="G182" s="5">
-        <v>425</v>
-      </c>
-      <c r="H182" s="12">
-        <v>600</v>
-      </c>
-      <c r="I182" s="12">
-        <v>400</v>
-      </c>
-      <c r="J182" s="12">
-        <v>11</v>
+      <c r="G182" s="19">
+        <v>612</v>
+      </c>
+      <c r="H182" s="19">
+        <v>720</v>
+      </c>
+      <c r="I182" s="19">
+        <v>570</v>
+      </c>
+      <c r="J182" s="19">
+        <v>59</v>
       </c>
       <c r="K182" s="5">
-        <v>12.8</v>
+        <v>6.7</v>
       </c>
       <c r="L182" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>26</v>
@@ -8344,36 +7475,36 @@
         <v>13</v>
       </c>
       <c r="D183" s="19">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E183" s="19">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="F183" s="19">
         <v>250</v>
       </c>
       <c r="G183" s="19">
-        <v>612</v>
+        <v>543</v>
       </c>
       <c r="H183" s="19">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="I183" s="19">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="J183" s="19">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K183" s="5">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="L183" s="5">
-        <v>7.3999999999999996E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>26</v>
@@ -8382,36 +7513,36 @@
         <v>13</v>
       </c>
       <c r="D184" s="19">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E184" s="19">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="F184" s="19">
         <v>250</v>
       </c>
       <c r="G184" s="19">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="H184" s="19">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="I184" s="19">
-        <v>470</v>
-      </c>
-      <c r="J184" s="19">
-        <v>54</v>
+        <v>570</v>
+      </c>
+      <c r="J184" s="5">
+        <v>59</v>
       </c>
       <c r="K184" s="5">
-        <v>8.5</v>
+        <v>10.7</v>
       </c>
       <c r="L184" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>26</v>
@@ -8420,36 +7551,36 @@
         <v>13</v>
       </c>
       <c r="D185" s="19">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E185" s="19">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="F185" s="19">
         <v>250</v>
       </c>
       <c r="G185" s="19">
-        <v>612</v>
+        <v>543</v>
       </c>
       <c r="H185" s="19">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="I185" s="19">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="J185" s="5">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K185" s="5">
-        <v>10.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L185" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>26</v>
@@ -8458,36 +7589,36 @@
         <v>13</v>
       </c>
       <c r="D186" s="19">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E186" s="19">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="F186" s="19">
         <v>250</v>
       </c>
       <c r="G186" s="19">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="H186" s="19">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="I186" s="19">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="J186" s="5">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K186" s="5">
-        <v>8.6999999999999993</v>
+        <v>11.7</v>
       </c>
       <c r="L186" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>26</v>
@@ -8496,112 +7627,112 @@
         <v>13</v>
       </c>
       <c r="D187" s="19">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E187" s="19">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="F187" s="19">
         <v>250</v>
       </c>
       <c r="G187" s="19">
-        <v>612</v>
+        <v>543</v>
       </c>
       <c r="H187" s="19">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="I187" s="19">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="J187" s="5">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K187" s="5">
-        <v>11.7</v>
+        <v>16.5</v>
       </c>
       <c r="L187" s="5">
-        <v>0.14199999999999999</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D188" s="19">
-        <v>400</v>
-      </c>
-      <c r="E188" s="19">
-        <v>280</v>
-      </c>
-      <c r="F188" s="19">
+      <c r="D188" s="5">
+        <v>650</v>
+      </c>
+      <c r="E188" s="5">
+        <v>415</v>
+      </c>
+      <c r="F188" s="5">
         <v>250</v>
       </c>
-      <c r="G188" s="19">
-        <v>543</v>
-      </c>
-      <c r="H188" s="19">
-        <v>700</v>
-      </c>
-      <c r="I188" s="19">
-        <v>470</v>
+      <c r="G188" s="5">
+        <v>690</v>
+      </c>
+      <c r="H188" s="5">
+        <v>900</v>
+      </c>
+      <c r="I188" s="5">
+        <v>600</v>
       </c>
       <c r="J188" s="5">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="K188" s="5">
-        <v>16.5</v>
+        <v>2.6</v>
       </c>
       <c r="L188" s="5">
-        <v>0.13600000000000001</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D189" s="5">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E189" s="5">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="F189" s="5">
         <v>250</v>
       </c>
       <c r="G189" s="5">
-        <v>690</v>
+        <v>491</v>
       </c>
       <c r="H189" s="5">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="I189" s="5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J189" s="5">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="K189" s="5">
-        <v>2.6</v>
+        <v>5.71</v>
       </c>
       <c r="L189" s="5">
-        <v>4.3999999999999997E-2</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>18</v>
@@ -8619,27 +7750,27 @@
         <v>250</v>
       </c>
       <c r="G190" s="5">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="H190" s="5">
         <v>650</v>
       </c>
       <c r="I190" s="5">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="J190" s="5">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K190" s="5">
-        <v>5.71</v>
+        <v>9.1120000000000001</v>
       </c>
       <c r="L190" s="5">
-        <v>2.29</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>18</v>
@@ -8657,27 +7788,27 @@
         <v>250</v>
       </c>
       <c r="G191" s="5">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="H191" s="5">
         <v>650</v>
       </c>
       <c r="I191" s="5">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J191" s="5">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K191" s="5">
-        <v>9.1120000000000001</v>
+        <v>12.08</v>
       </c>
       <c r="L191" s="5">
-        <v>2.3199999999999998</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>18</v>
@@ -8695,7 +7826,7 @@
         <v>250</v>
       </c>
       <c r="G192" s="5">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="H192" s="5">
         <v>650</v>
@@ -8704,18 +7835,18 @@
         <v>400</v>
       </c>
       <c r="J192" s="5">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="K192" s="5">
-        <v>12.08</v>
+        <v>5.71</v>
       </c>
       <c r="L192" s="5">
-        <v>2.4700000000000002</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>18</v>
@@ -8733,27 +7864,27 @@
         <v>250</v>
       </c>
       <c r="G193" s="5">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="H193" s="5">
         <v>650</v>
       </c>
       <c r="I193" s="5">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="J193" s="5">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K193" s="5">
-        <v>5.71</v>
+        <v>9.1120000000000001</v>
       </c>
       <c r="L193" s="5">
-        <v>4.38</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>18</v>
@@ -8771,68 +7902,70 @@
         <v>250</v>
       </c>
       <c r="G194" s="5">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="H194" s="5">
         <v>650</v>
       </c>
       <c r="I194" s="5">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J194" s="5">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K194" s="5">
-        <v>9.1120000000000001</v>
+        <v>12.08</v>
       </c>
       <c r="L194" s="5">
-        <v>4.62</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="4">
-        <v>195</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>13</v>
+        <v>196</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D195" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E195" s="5">
-        <v>392</v>
+        <v>511</v>
       </c>
       <c r="F195" s="5">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G195" s="5">
-        <v>454</v>
+        <v>527</v>
       </c>
       <c r="H195" s="5">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="I195" s="5">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="J195" s="5">
-        <v>68</v>
-      </c>
-      <c r="K195" s="5">
-        <v>12.08</v>
-      </c>
-      <c r="L195" s="5">
-        <v>4.92</v>
+        <v>65</v>
+      </c>
+      <c r="K195" s="24">
+        <f>0.00371/(0.18*13.3)*100</f>
+        <v>0.15497076023391815</v>
+      </c>
+      <c r="L195" s="27">
+        <f>0.00371*0.3819*55.8/(1000*0.04*0.04)</f>
+        <v>4.9412608875000007E-2</v>
       </c>
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="4">
-        <v>196</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>19</v>
+        <v>197</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>14</v>
@@ -8841,38 +7974,38 @@
         <v>600</v>
       </c>
       <c r="E196" s="5">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="F196" s="5">
         <v>450</v>
       </c>
       <c r="G196" s="5">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="H196" s="5">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="I196" s="5">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="J196" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K196" s="24">
-        <f>0.00371/(0.18*13.3)*100</f>
-        <v>0.15497076023391815</v>
+        <f>0.00379/(0.18*13.3)*100</f>
+        <v>0.15831244778613199</v>
       </c>
       <c r="L196" s="27">
-        <f>0.00371*0.3819*55.8/(1000*0.04*0.04)</f>
-        <v>4.9412608875000007E-2</v>
+        <f>0.00379*0.387*55.4/(1000*0.04*0.04)</f>
+        <v>5.0785526249999997E-2</v>
       </c>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>14</v>
@@ -8881,643 +8014,384 @@
         <v>600</v>
       </c>
       <c r="E197" s="5">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="F197" s="5">
         <v>450</v>
       </c>
       <c r="G197" s="5">
-        <v>612</v>
+        <v>550</v>
       </c>
       <c r="H197" s="5">
         <v>700</v>
       </c>
       <c r="I197" s="5">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="J197" s="5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K197" s="24">
-        <f>0.00379/(0.18*13.3)*100</f>
-        <v>0.15831244778613199</v>
+        <f>0.0052/(0.18*13.3)*100</f>
+        <v>0.21720969089390141</v>
       </c>
       <c r="L197" s="27">
-        <f>0.00379*0.387*55.4/(1000*0.04*0.04)</f>
-        <v>5.0785526249999997E-2</v>
+        <f>0.0052*0.4037*57.4/(1000*0.04*0.04)</f>
+        <v>7.5310235000000003E-2</v>
       </c>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D198" s="5">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="E198" s="5">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="F198" s="5">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G198" s="5">
+        <v>517</v>
+      </c>
+      <c r="H198" s="5">
         <v>550</v>
       </c>
-      <c r="H198" s="5">
-        <v>700</v>
-      </c>
       <c r="I198" s="5">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="J198" s="5">
-        <v>68</v>
-      </c>
-      <c r="K198" s="24">
-        <f>0.0052/(0.18*13.3)*100</f>
-        <v>0.21720969089390141</v>
+        <v>89</v>
+      </c>
+      <c r="K198" s="5">
+        <v>2.3199999999999998</v>
       </c>
       <c r="L198" s="27">
-        <f>0.0052*0.4037*57.4/(1000*0.04*0.04)</f>
-        <v>7.5310235000000003E-2</v>
+        <f>0.00187*5*0.2*0.4*0.7/(1000*0.05*0.05)*100</f>
+        <v>2.0943999999999997E-2</v>
       </c>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="5">
-        <v>510</v>
+        <v>660</v>
       </c>
       <c r="E199" s="5">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="F199" s="5">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="G199" s="5">
-        <v>517</v>
+        <v>665</v>
       </c>
       <c r="H199" s="5">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="I199" s="5">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="J199" s="5">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K199" s="5">
-        <v>2.3199999999999998</v>
+        <v>2.65</v>
       </c>
       <c r="L199" s="27">
-        <f>0.00187*5*0.2*0.4*0.7/(1000*0.05*0.05)*100</f>
-        <v>2.0943999999999997E-2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D200" s="5">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="E200" s="5">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="F200" s="5">
-        <v>680</v>
+        <v>400</v>
       </c>
       <c r="G200" s="5">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="H200" s="5">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="I200" s="5">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="J200" s="5">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K200" s="5">
-        <v>2.65</v>
-      </c>
-      <c r="L200" s="27">
-        <v>0.21</v>
+        <v>0.02</v>
+      </c>
+      <c r="L200" s="28">
+        <v>1.9799999999999999E-4</v>
       </c>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="4">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D201" s="5">
-        <v>370</v>
-      </c>
-      <c r="E201" s="5">
+      <c r="D201" s="12">
+        <v>510</v>
+      </c>
+      <c r="E201" s="12">
         <v>250</v>
       </c>
       <c r="F201" s="5">
-        <v>400</v>
-      </c>
-      <c r="G201" s="5">
-        <v>612</v>
-      </c>
-      <c r="H201" s="5">
-        <v>570</v>
+        <v>520</v>
+      </c>
+      <c r="G201" s="12">
+        <v>535</v>
+      </c>
+      <c r="H201" s="12">
+        <v>400</v>
       </c>
       <c r="I201" s="5">
-        <v>720</v>
-      </c>
-      <c r="J201" s="5">
-        <v>60</v>
+        <v>650</v>
+      </c>
+      <c r="J201" s="12">
+        <v>78</v>
       </c>
       <c r="K201" s="5">
-        <v>0.02</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L201" s="28">
-        <v>1.9799999999999999E-4</v>
+        <v>1.8200000000000001E-4</v>
       </c>
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="4">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D202" s="12">
-        <v>510</v>
-      </c>
-      <c r="E202" s="12">
+      <c r="D202" s="5">
+        <v>370</v>
+      </c>
+      <c r="E202" s="5">
         <v>250</v>
       </c>
       <c r="F202" s="5">
-        <v>520</v>
-      </c>
-      <c r="G202" s="12">
-        <v>535</v>
-      </c>
-      <c r="H202" s="12">
-        <v>400</v>
+        <v>400</v>
+      </c>
+      <c r="G202" s="5">
+        <v>612</v>
+      </c>
+      <c r="H202" s="5">
+        <v>570</v>
       </c>
       <c r="I202" s="5">
-        <v>650</v>
-      </c>
-      <c r="J202" s="12">
-        <v>78</v>
+        <v>720</v>
+      </c>
+      <c r="J202" s="5">
+        <v>60</v>
       </c>
       <c r="K202" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="L202" s="28">
-        <v>1.8200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12">
-      <c r="A203" s="4">
-        <v>203</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" s="5">
-        <v>370</v>
-      </c>
-      <c r="E203" s="5">
-        <v>250</v>
-      </c>
-      <c r="F203" s="5">
-        <v>400</v>
-      </c>
-      <c r="G203" s="5">
-        <v>612</v>
-      </c>
-      <c r="H203" s="5">
-        <v>570</v>
-      </c>
-      <c r="I203" s="5">
-        <v>720</v>
-      </c>
-      <c r="J203" s="5">
-        <v>60</v>
-      </c>
-      <c r="K203" s="5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L203" s="28">
         <v>4.7100000000000001E-4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E151:E153 E157 E155 I180:I182 F177:F182 B200:C200 B177:C179 B143 B146 B148:B149 B152:B162 B168:B176 C169:C172 C149:C160 B2:D31 B163:C167 B144:C145 B147:C147 J2:L6 K7:L8 K162:L162 J163:L179 G202 E15:E81 B32:C142 D33:D176 J9:L161 G2:G176">
-    <cfRule type="containsBlanks" dxfId="86" priority="86">
+  <conditionalFormatting sqref="B195 E2:E154 G2:G175 H2:H181">
+    <cfRule type="containsBlanks" dxfId="33" priority="8">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="85" priority="87">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B198 G2:I175 E2:F148">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="9">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsBlanks" dxfId="84" priority="84">
-      <formula>LEN(TRIM(D32))=0</formula>
+  <conditionalFormatting sqref="B32:C161 D32:D175 J2:L161">
+    <cfRule type="containsBlanks" dxfId="31" priority="24">
+      <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="83" priority="85">
-      <formula>LEN(TRIM(D32))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E13">
-    <cfRule type="containsBlanks" dxfId="82" priority="82">
-      <formula>LEN(TRIM(E2))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="81" priority="83">
-      <formula>LEN(TRIM(E2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13 F151:F153 F157 F155 K188:L189 J199:K199 J189:J192 H163:I176 D177:I199 K202 C196:C199 C202 B201:B203 B197:B199 B177:C195 L199:L203 L191:L195 J196:L198 D200:K200 C201:K201 C203:K203 B166:G176 J166:L187 F15:F81 H9:I81">
-    <cfRule type="notContainsBlanks" dxfId="80" priority="81">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="25">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H6 H9:H81">
-    <cfRule type="containsBlanks" dxfId="79" priority="79">
-      <formula>LEN(TRIM(H2))=0</formula>
+  <conditionalFormatting sqref="B176:C194 D176:I198 B165:G175 J165:L186 K187:L188 J195:L197 J198:K198 L198:L202 D199:K199 C200:K200 B200:B202 C202:K202">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="81">
+      <formula>LEN(TRIM(B165))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I6">
-    <cfRule type="notContainsBlanks" dxfId="78" priority="80">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
+  <conditionalFormatting sqref="B2:D31 B162:C166 J162:L178 B167:B175 C168:C171 B176:C178 F176:F181 I179:I181 B199:C199">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="87">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="containsBlanks" dxfId="77" priority="77">
-      <formula>LEN(TRIM(J7))=0</formula>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="containsBlanks" dxfId="27" priority="22">
+      <formula>LEN(TRIM(C167))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="76" priority="78">
-      <formula>LEN(TRIM(J7))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="26" priority="23">
+      <formula>LEN(TRIM(C167))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsBlanks" dxfId="75" priority="75">
-      <formula>LEN(TRIM(H7))=0</formula>
+  <conditionalFormatting sqref="C172:C175">
+    <cfRule type="containsBlanks" dxfId="25" priority="20">
+      <formula>LEN(TRIM(C172))=0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="24" priority="21">
+      <formula>LEN(TRIM(C172))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
-    <cfRule type="notContainsBlanks" dxfId="74" priority="76">
-      <formula>LEN(TRIM(H7))&gt;0</formula>
+  <conditionalFormatting sqref="C201:E201">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="5">
+      <formula>LEN(TRIM(C201))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsBlanks" dxfId="73" priority="73">
-      <formula>LEN(TRIM(J8))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="72" priority="74">
-      <formula>LEN(TRIM(J8))&gt;0</formula>
+  <conditionalFormatting sqref="D176:D181">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
+      <formula>LEN(TRIM(D176))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsBlanks" dxfId="71" priority="71">
-      <formula>LEN(TRIM(H8))=0</formula>
+  <conditionalFormatting sqref="D179:D181">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="16">
+      <formula>LEN(TRIM(D179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
-    <cfRule type="notContainsBlanks" dxfId="70" priority="72">
-      <formula>LEN(TRIM(H8))&gt;0</formula>
+  <conditionalFormatting sqref="D176:E178">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="63">
+      <formula>LEN(TRIM(D176))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="containsBlanks" dxfId="69" priority="69">
-      <formula>LEN(TRIM(E14))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="68" priority="70">
-      <formula>LEN(TRIM(E14))&gt;0</formula>
+  <conditionalFormatting sqref="D201:E201">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
+      <formula>LEN(TRIM(D201))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="notContainsBlanks" dxfId="67" priority="68">
-      <formula>LEN(TRIM(F14))&gt;0</formula>
+  <conditionalFormatting sqref="E149:E154">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="43">
+      <formula>LEN(TRIM(E149))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B150:B151 C180:C195 I177:I179">
-    <cfRule type="containsBlanks" dxfId="66" priority="66">
-      <formula>LEN(TRIM(B150))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="65" priority="67">
-      <formula>LEN(TRIM(B150))&gt;0</formula>
+  <conditionalFormatting sqref="E156:E175">
+    <cfRule type="containsBlanks" dxfId="17" priority="35">
+      <formula>LEN(TRIM(E156))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143:E149 E158:E161 E163:E174 D177:D179">
-    <cfRule type="containsBlanks" dxfId="64" priority="64">
-      <formula>LEN(TRIM(D143))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="63" priority="65">
-      <formula>LEN(TRIM(D143))&gt;0</formula>
+  <conditionalFormatting sqref="E174:E175">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="36">
+      <formula>LEN(TRIM(E174))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F143:F149 F158:F161 F163:F174 E177:E179">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="63">
-      <formula>LEN(TRIM(E143))&gt;0</formula>
+  <conditionalFormatting sqref="E179:E181">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="14">
+      <formula>LEN(TRIM(E179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H143:H149 H151:H161 H163:H179">
-    <cfRule type="containsBlanks" dxfId="61" priority="61">
-      <formula>LEN(TRIM(H143))=0</formula>
+  <conditionalFormatting sqref="E155:F173">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="40">
+      <formula>LEN(TRIM(E155))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H143:I149 H151:I161">
-    <cfRule type="notContainsBlanks" dxfId="60" priority="62">
-      <formula>LEN(TRIM(H143))&gt;0</formula>
+  <conditionalFormatting sqref="F149:F154">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="41">
+      <formula>LEN(TRIM(F149))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E142">
-    <cfRule type="containsBlanks" dxfId="59" priority="59">
-      <formula>LEN(TRIM(E82))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="58" priority="60">
-      <formula>LEN(TRIM(E82))&gt;0</formula>
+  <conditionalFormatting sqref="F174:F175">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="34">
+      <formula>LEN(TRIM(F174))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82:F142">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="58">
-      <formula>LEN(TRIM(F82))&gt;0</formula>
+  <conditionalFormatting sqref="F201:I201">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="2">
+      <formula>LEN(TRIM(F201))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82:H142">
-    <cfRule type="containsBlanks" dxfId="56" priority="56">
-      <formula>LEN(TRIM(H82))=0</formula>
+  <conditionalFormatting sqref="B162:C166 J162:L178 B167:B175 C168:C171 B176:C178 F176:F181 I179:I181 B2:D31 B199:C199">
+    <cfRule type="containsBlanks" dxfId="10" priority="86">
+      <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82:I142">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="57">
-      <formula>LEN(TRIM(H82))&gt;0</formula>
+  <conditionalFormatting sqref="G201:H201">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(G201))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="containsBlanks" dxfId="54" priority="54">
-      <formula>LEN(TRIM(E150))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="53" priority="55">
-      <formula>LEN(TRIM(E150))&gt;0</formula>
+  <conditionalFormatting sqref="I176:I178 C179:C194">
+    <cfRule type="containsBlanks" dxfId="8" priority="66">
+      <formula>LEN(TRIM(C176))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F150">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="53">
-      <formula>LEN(TRIM(F150))&gt;0</formula>
+  <conditionalFormatting sqref="I176:I178 C179:C198">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="67">
+      <formula>LEN(TRIM(C176))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H150">
-    <cfRule type="containsBlanks" dxfId="51" priority="51">
-      <formula>LEN(TRIM(H150))=0</formula>
+  <conditionalFormatting sqref="J179:J181">
+    <cfRule type="containsBlanks" dxfId="6" priority="17">
+      <formula>LEN(TRIM(J179))=0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="18">
+      <formula>LEN(TRIM(J179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H150:I150">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="52">
-      <formula>LEN(TRIM(H150))&gt;0</formula>
+  <conditionalFormatting sqref="J187:J193 J194:K194">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
+      <formula>LEN(TRIM(J187))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J162">
-    <cfRule type="containsBlanks" dxfId="49" priority="49">
-      <formula>LEN(TRIM(J162))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="48" priority="50">
-      <formula>LEN(TRIM(J162))&gt;0</formula>
+  <conditionalFormatting sqref="J201">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(J201))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
-    <cfRule type="containsBlanks" dxfId="47" priority="47">
-      <formula>LEN(TRIM(E162))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="46" priority="48">
-      <formula>LEN(TRIM(E162))&gt;0</formula>
+  <conditionalFormatting sqref="J201:K201">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="7">
+      <formula>LEN(TRIM(J201))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="46">
-      <formula>LEN(TRIM(F162))&gt;0</formula>
+  <conditionalFormatting sqref="K189:K193">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="11">
+      <formula>LEN(TRIM(K189))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H162">
-    <cfRule type="containsBlanks" dxfId="44" priority="44">
-      <formula>LEN(TRIM(H162))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H162:I162">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="45">
-      <formula>LEN(TRIM(H162))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="containsBlanks" dxfId="42" priority="42">
-      <formula>LEN(TRIM(E154))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="41" priority="43">
-      <formula>LEN(TRIM(E154))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F154">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="41">
-      <formula>LEN(TRIM(F154))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156:F156">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="40">
-      <formula>LEN(TRIM(E156))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E175">
-    <cfRule type="containsBlanks" dxfId="38" priority="38">
-      <formula>LEN(TRIM(E175))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="37" priority="39">
-      <formula>LEN(TRIM(E175))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F175">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="37">
-      <formula>LEN(TRIM(F175))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
-    <cfRule type="containsBlanks" dxfId="35" priority="35">
-      <formula>LEN(TRIM(E176))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="34" priority="36">
-      <formula>LEN(TRIM(E176))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="34">
-      <formula>LEN(TRIM(F176))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="containsBlanks" dxfId="32" priority="32">
-      <formula>LEN(TRIM(C143))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="31" priority="33">
-      <formula>LEN(TRIM(C143))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="containsBlanks" dxfId="30" priority="30">
-      <formula>LEN(TRIM(C146))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="31">
-      <formula>LEN(TRIM(C146))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="containsBlanks" dxfId="28" priority="28">
-      <formula>LEN(TRIM(C148))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="29">
-      <formula>LEN(TRIM(C148))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="containsBlanks" dxfId="26" priority="26">
-      <formula>LEN(TRIM(C161))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
-      <formula>LEN(TRIM(C161))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="containsBlanks" dxfId="24" priority="24">
-      <formula>LEN(TRIM(C162))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="23" priority="25">
-      <formula>LEN(TRIM(C162))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="containsBlanks" dxfId="22" priority="22">
-      <formula>LEN(TRIM(C168))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="21" priority="23">
-      <formula>LEN(TRIM(C168))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173:C176">
-    <cfRule type="containsBlanks" dxfId="20" priority="20">
-      <formula>LEN(TRIM(C173))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="19" priority="21">
-      <formula>LEN(TRIM(C173))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J188">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="19">
-      <formula>LEN(TRIM(J188))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J180:J182">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(J180))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="16" priority="18">
-      <formula>LEN(TRIM(J180))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D180:D182">
-    <cfRule type="containsBlanks" dxfId="15" priority="15">
-      <formula>LEN(TRIM(D180))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="14" priority="16">
-      <formula>LEN(TRIM(D180))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E180:E182">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
-      <formula>LEN(TRIM(E180))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H180:H182">
-    <cfRule type="containsBlanks" dxfId="12" priority="13">
-      <formula>LEN(TRIM(H180))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J195:K195 J193:J194">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
-      <formula>LEN(TRIM(J193))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K190:K194">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(K190))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L190">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
-      <formula>LEN(TRIM(L190))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196">
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
-      <formula>LEN(TRIM(B196))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(B196))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E202">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
-      <formula>LEN(TRIM(E202))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
-      <formula>LEN(TRIM(E202))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F202">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
-      <formula>LEN(TRIM(F202))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H202">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(H202))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H202:I202">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(H202))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J202 D202">
-    <cfRule type="containsBlanks" dxfId="1" priority="6">
-      <formula>LEN(TRIM(D202))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
-      <formula>LEN(TRIM(D202))&gt;0</formula>
+  <conditionalFormatting sqref="L189:L194">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="10">
+      <formula>LEN(TRIM(L189))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
